--- a/Assignment3/dataset.xlsx
+++ b/Assignment3/dataset.xlsx
@@ -1450,9 +1450,9 @@
   <dimension ref="A1:G425"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F363" activeCellId="0" sqref="F363"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1463,7 +1463,7 @@
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
